--- a/biology/Botanique/Josef_Poelt/Josef_Poelt.xlsx
+++ b/biology/Botanique/Josef_Poelt/Josef_Poelt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josef Poelt est un botaniste allemand né à Pöcking (Alpes de Haute-Bavière) le 17 octobre 1924 et décédé à Graz (Autriche) le 3 juin 1995. Il a marqué la lichénologie du XXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Hertel, H., Nimis, P.L. &amp; Vězda, A., 1996. A Tribute to Josef Poelt (1924–1995). The Lichenologist, 28: 183-187. 1re page.
 (de) Mayrhofer, H., Hafellner, J. &amp; Scheuer, C., 1996. Josef Poelt (1924-1995). Mitteilungen des Naturwissenschaftlichen Vereines für Steiermark, 126, 11-15. Article (1,20 Mo)</t>
